--- a/lib_tc_bak/com.aislend.ViewCart.xlsx
+++ b/lib_tc_bak/com.aislend.ViewCart.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="265">
   <si>
     <t>Action</t>
   </si>
@@ -442,12 +442,6 @@
     <t>//div[normalize-space(@class) = 'cart-summary']</t>
   </si>
   <si>
-    <t xml:space="preserve">VerifySummaryViewCart succesfully </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeleteProductfromViewCart succesfully </t>
-  </si>
-  <si>
     <t>Click on  User name</t>
   </si>
   <si>
@@ -475,9 +469,6 @@
     <t>"6000"</t>
   </si>
   <si>
-    <t>Text Entered successfully: 6000</t>
-  </si>
-  <si>
     <t>//*[@id="wrap"]/header/div[1]/div/div[2]/ul/li[3]/a</t>
   </si>
   <si>
@@ -652,9 +643,6 @@
     <t>user should able to enter email</t>
   </si>
   <si>
-    <t>Text Entered successfully: asdasd@</t>
-  </si>
-  <si>
     <t>Click on join button</t>
   </si>
   <si>
@@ -679,9 +667,6 @@
     <t>asdasd@assdcsadsaasd.com</t>
   </si>
   <si>
-    <t>Text Entered successfully: asdasd@assdcsadsaasd.com</t>
-  </si>
-  <si>
     <t>Verify Message should appear on the screen</t>
   </si>
   <si>
@@ -694,15 +679,6 @@
     <t>"Thank you for your subscription." messge should appear on the screen</t>
   </si>
   <si>
-    <t>text verified: Thank you for your subscription.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RemoveInstruction succesfully </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AddProductfromViewCart succesfully </t>
-  </si>
-  <si>
     <t>US_ID_09</t>
   </si>
   <si>
@@ -727,54 +703,127 @@
     <t>all</t>
   </si>
   <si>
-    <t>Add product successfully</t>
-  </si>
-  <si>
-    <t>Select Substitute successfully: Allow Substitute for product: null</t>
-  </si>
-  <si>
-    <t>VerifyFooterLinks successfully: null</t>
-  </si>
-  <si>
     <t>wait</t>
   </si>
   <si>
-    <t>text verified: Please enter a valid email address (Ex: johndoe@domain.com).</t>
-  </si>
-  <si>
-    <t>Select Substitute successfully: Do Not Allow Substitute for product: null</t>
-  </si>
-  <si>
     <t>City Market Norwalk - Online Grocery Supermarket with Home Delivery</t>
   </si>
   <si>
-    <t>Title verified succesfully: City Market Norwalk - Online Grocery Supermarket with Home Delivery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RemoveProductfromViewCart succesfully </t>
-  </si>
-  <si>
-    <t>Text Entered successfully: userchandna4269593@mailinator.com</t>
-  </si>
-  <si>
-    <t>Text Entered successfully: Randomemailid</t>
-  </si>
-  <si>
-    <t>action AddInstruction failed: Hello</t>
-  </si>
-  <si>
-    <t>element not visible
+    <t>action VerifySummaryViewCart failed: null  null</t>
+  </si>
+  <si>
+    <t>VerifyTitle: City Market Norwalk - Online Grocery Supermarket with Home Delivery</t>
+  </si>
+  <si>
+    <t>VerifyElement: null</t>
+  </si>
+  <si>
+    <t>Click: null</t>
+  </si>
+  <si>
+    <t>SetText: 123456</t>
+  </si>
+  <si>
+    <t>VerifyText: Akash sangal</t>
+  </si>
+  <si>
+    <t>MoveToProductList: Quick &amp; Easy Food Solutions</t>
+  </si>
+  <si>
+    <t>VerifyNoElement: null</t>
+  </si>
+  <si>
+    <t>MoveAndAddProduct: null</t>
+  </si>
+  <si>
+    <t>MoveAndAddProduct: exist</t>
+  </si>
+  <si>
+    <t>MoveAndAddProduct: Banquet Brown 'N Serve Turkey Sausage Links</t>
+  </si>
+  <si>
+    <t>EditInstruction: Bye</t>
+  </si>
+  <si>
+    <t>RemoveInstruction: null</t>
+  </si>
+  <si>
+    <t>SetText: asdasd@</t>
+  </si>
+  <si>
+    <t>Wait: 6000</t>
+  </si>
+  <si>
+    <t>VerifyText: Please enter a valid email address (Ex: johndoe@domain.com).</t>
+  </si>
+  <si>
+    <t>SetText: asdasd@assdcsadsaasd.com</t>
+  </si>
+  <si>
+    <t>VerifyText: Thank you for your subscription.</t>
+  </si>
+  <si>
+    <t>VerifyFooterLinks: null</t>
+  </si>
+  <si>
+    <t>VerifyText: Customers can opt for replacements in case an item is out of stock. We will choose a replacement item that is comparable to the original based on brand, flavor, size and price. You will be notified of replacements and will have the opportunity to approve the replacement or request a refund for the item.</t>
+  </si>
+  <si>
+    <t>AddInstruction: Hello</t>
+  </si>
+  <si>
+    <t>SelectSubstitute: Do Not Allow Substitute</t>
+  </si>
+  <si>
+    <t>SelectSubstitute: Allow Substitute</t>
+  </si>
+  <si>
+    <t>VerifySummaryViewCart: null</t>
+  </si>
+  <si>
+    <t>AddProductfromViewCart: Jose Ole Steak &amp; Cheese Chimichanga</t>
+  </si>
+  <si>
+    <t>RemoveProductfromViewCart: Jose Ole Steak &amp; Cheese Chimichanga</t>
+  </si>
+  <si>
+    <t>DeleteProductfromViewCart: Jose Ole Steak &amp; Cheese Chimichanga</t>
+  </si>
+  <si>
+    <t>DeleteProductfromViewCart: all</t>
+  </si>
+  <si>
+    <t>SetText: userchandna7049580@mailinator.com</t>
+  </si>
+  <si>
+    <t>text not verified: You have no items in your shopping cart.</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":".//div[normalize-space(@class) = 'cart-empty']"}
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 33 milliseconds
+Command duration or timeout: 24 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\WINDOWS\TEMP\scoped_dir2304_5586}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 3029accc9e73fa132c825781c7109fc7</t>
-  </si>
-  <si>
-    <t>action VerifySummaryViewCart failed: null  null</t>
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17800_878}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 90c707c1cf12f41c381b5a6a3677976b
+*** Element info: {Using=xpath, value=.//div[normalize-space(@class) = 'cart-empty']}</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //strong[normalize-space(@class) = 'subtitle empty'] (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16768_17220}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: c9bdc0d9e62ef4cd866212b0f2ff220f</t>
+  </si>
+  <si>
+    <t>SetText: Randomemailid</t>
+  </si>
+  <si>
+    <t>VerifyText: You have no items in your shopping cart.</t>
   </si>
   <si>
     <t>no such element: Unable to locate element: {"method":"xpath","selector":".//span[normalize-space(@data-th) = 'Shipping']"}
@@ -785,8 +834,35 @@
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\WINDOWS\TEMP\scoped_dir2304_5586}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 3029accc9e73fa132c825781c7109fc7
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir5108_9704}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 7dcd4d51e17a926636e51b41671e2c2a
+*** Element info: {Using=xpath, value=.//span[normalize-space(@data-th) = 'Shipping']}</t>
+  </si>
+  <si>
+    <t>action AddInstruction failed: Hello</t>
+  </si>
+  <si>
+    <t>unknown error: Element &lt;a class="cc__gift-edit cc__icon-instructions icon-instructions" data-bind="click: isVisible, attr: {id: getTextAreBoId()}" id="add_instruction_3797"&gt;...&lt;/a&gt; is not clickable at point (82, 23). Other element would receive the click: &lt;img src="https://smhttp-ssl-72073.nexcesscdn.net/media/logo/stores/1/City_market_logo_1.png" alt="City Market Norwalk" width="148" height="43"&gt;
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 36 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir1824_9204}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 3ebe240e9f23a133aa4e0dbf2b543295</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":".//span[normalize-space(@data-th) = 'Shipping']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 14 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir1824_9204}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 3ebe240e9f23a133aa4e0dbf2b543295
 *** Element info: {Using=xpath, value=.//span[normalize-space(@data-th) = 'Shipping']}</t>
   </si>
 </sst>
@@ -1418,7 +1494,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1426,7 +1502,7 @@
         <v>69</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1434,15 +1510,15 @@
         <v>72</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1450,7 +1526,7 @@
         <v>93</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1458,7 +1534,7 @@
         <v>94</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1466,7 +1542,7 @@
         <v>95</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1474,15 +1550,15 @@
         <v>96</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1507,7 +1583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -1575,7 +1651,7 @@
         <v>18</v>
       </c>
     </row>
-    <row ht="180" r="2" spans="1:15">
+    <row ht="135" r="2" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -1591,7 +1667,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -1600,7 +1676,7 @@
         <v>36</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>119</v>
@@ -1639,7 +1715,7 @@
         <v>40</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>121</v>
+        <v>229</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>119</v>
@@ -1678,7 +1754,7 @@
         <v>42</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>122</v>
+        <v>230</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>119</v>
@@ -1717,7 +1793,7 @@
         <v>46</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>121</v>
+        <v>229</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>119</v>
@@ -1729,7 +1805,7 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="120" r="6" spans="1:15">
+    <row ht="75" r="6" spans="1:15">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1762,7 +1838,7 @@
         <v>52</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>119</v>
@@ -1774,7 +1850,7 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="60" r="7" spans="1:15">
+    <row ht="45" r="7" spans="1:15">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -1803,7 +1879,7 @@
         <v>57</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>123</v>
+        <v>231</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>119</v>
@@ -1842,7 +1918,7 @@
         <v>61</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>122</v>
+        <v>230</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>119</v>
@@ -1871,7 +1947,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>65</v>
@@ -1883,7 +1959,7 @@
         <v>66</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>133</v>
+        <v>232</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>119</v>
@@ -1895,7 +1971,7 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="180" r="10" spans="1:15">
+    <row ht="135" r="10" spans="1:15">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -1911,7 +1987,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1920,7 +1996,7 @@
         <v>36</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>119</v>
@@ -1959,7 +2035,7 @@
         <v>36</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>121</v>
+        <v>229</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>119</v>
@@ -2002,7 +2078,7 @@
         <v>36</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>124</v>
+        <v>233</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>119</v>
@@ -2041,7 +2117,7 @@
         <v>36</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>122</v>
+        <v>230</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>119</v>
@@ -2058,7 +2134,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>80</v>
@@ -2080,7 +2156,7 @@
         <v>36</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>121</v>
+        <v>229</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>119</v>
@@ -2092,12 +2168,12 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="105" r="15" spans="1:15">
+    <row ht="409.5" r="15" spans="1:15">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>82</v>
@@ -2121,7 +2197,7 @@
         <v>36</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>188</v>
+        <v>260</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>119</v>
@@ -2133,12 +2209,12 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="45" r="16" spans="1:15">
+    <row ht="30" r="16" spans="1:15">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>85</v>
@@ -2160,7 +2236,7 @@
         <v>36</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>122</v>
+        <v>230</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>119</v>
@@ -2177,7 +2253,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>87</v>
@@ -2199,7 +2275,7 @@
         <v>36</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>121</v>
+        <v>234</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>119</v>
@@ -2216,7 +2292,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>73</v>
@@ -2242,7 +2318,7 @@
         <v>36</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>124</v>
+        <v>233</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>119</v>
@@ -2259,7 +2335,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>89</v>
@@ -2281,7 +2357,7 @@
         <v>36</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>119</v>
@@ -2298,7 +2374,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>89</v>
@@ -2313,7 +2389,7 @@
         <v>91</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="4"/>
@@ -2322,7 +2398,7 @@
         <v>36</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>119</v>
@@ -2334,12 +2410,12 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="75" r="21" spans="1:15">
+    <row ht="120" r="21" spans="1:15">
       <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>89</v>
@@ -2363,7 +2439,7 @@
         <v>36</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>119</v>
@@ -2380,7 +2456,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>89</v>
@@ -2395,7 +2471,7 @@
         <v>91</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -2404,7 +2480,7 @@
         <v>36</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>119</v>
@@ -2421,7 +2497,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>89</v>
@@ -2436,7 +2512,7 @@
         <v>91</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -2445,7 +2521,7 @@
         <v>36</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>119</v>
@@ -2462,7 +2538,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>89</v>
@@ -2477,7 +2553,7 @@
         <v>91</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -2486,7 +2562,7 @@
         <v>36</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>119</v>
@@ -2503,7 +2579,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>89</v>
@@ -2525,7 +2601,7 @@
         <v>36</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>119</v>
@@ -2542,7 +2618,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>89</v>
@@ -2557,7 +2633,7 @@
         <v>91</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -2566,7 +2642,7 @@
         <v>36</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>119</v>
@@ -2583,7 +2659,7 @@
         <v>17</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>89</v>
@@ -2598,7 +2674,7 @@
         <v>91</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -2607,7 +2683,7 @@
         <v>36</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>119</v>
@@ -2624,7 +2700,7 @@
         <v>17</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>89</v>
@@ -2646,7 +2722,7 @@
         <v>36</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>119</v>
@@ -2663,7 +2739,7 @@
         <v>17</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>89</v>
@@ -2678,7 +2754,7 @@
         <v>91</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -2687,7 +2763,7 @@
         <v>36</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>119</v>
@@ -2704,7 +2780,7 @@
         <v>17</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>78</v>
@@ -2726,7 +2802,7 @@
         <v>36</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>122</v>
+        <v>230</v>
       </c>
       <c r="M30" s="4" t="s">
         <v>119</v>
@@ -2743,7 +2819,7 @@
         <v>17</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>80</v>
@@ -2765,7 +2841,7 @@
         <v>36</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>121</v>
+        <v>229</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>119</v>
@@ -2782,7 +2858,7 @@
         <v>17</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>107</v>
@@ -2804,7 +2880,7 @@
         <v>108</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>122</v>
+        <v>230</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>119</v>
@@ -2824,7 +2900,7 @@
         <v>27</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>64</v>
@@ -2833,19 +2909,19 @@
         <v>29</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>183</v>
+        <v>246</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>119</v>
@@ -2857,7 +2933,7 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="45" r="34" spans="1:15">
+    <row ht="30" r="34" spans="1:15">
       <c r="A34" s="4" t="s">
         <v>72</v>
       </c>
@@ -2865,10 +2941,10 @@
         <v>27</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>29</v>
@@ -2877,28 +2953,28 @@
         <v>112</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>245</v>
+        <v>120</v>
       </c>
       <c r="O34" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row ht="45" r="35" spans="1:15">
+    <row ht="30" r="35" spans="1:15">
       <c r="A35" s="4" t="s">
         <v>72</v>
       </c>
@@ -2906,10 +2982,10 @@
         <v>31</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>29</v>
@@ -2918,16 +2994,16 @@
         <v>112</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>196</v>
+        <v>247</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>119</v>
@@ -2939,7 +3015,7 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="45" r="36" spans="1:15">
+    <row ht="30" r="36" spans="1:15">
       <c r="A36" s="4" t="s">
         <v>72</v>
       </c>
@@ -2947,10 +3023,10 @@
         <v>32</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>29</v>
@@ -2959,16 +3035,16 @@
         <v>112</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>197</v>
+        <v>238</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>119</v>
@@ -2988,10 +3064,10 @@
         <v>43</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>29</v>
@@ -3004,30 +3080,30 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row ht="30" r="38" spans="1:15">
+      <c r="A38" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row ht="60" r="38" spans="1:15">
-      <c r="A38" s="4" t="s">
-        <v>203</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>49</v>
@@ -3036,19 +3112,19 @@
         <v>50</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="M38" s="4" t="s">
         <v>119</v>
@@ -3060,32 +3136,32 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="60" r="39" spans="1:15">
+    <row ht="15" r="39" spans="1:15">
       <c r="A39" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>149</v>
+        <v>241</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>119</v>
@@ -3099,13 +3175,13 @@
     </row>
     <row ht="45" r="40" spans="1:15">
       <c r="A40" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>28</v>
@@ -3114,17 +3190,17 @@
         <v>29</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>122</v>
+        <v>230</v>
       </c>
       <c r="M40" s="4" t="s">
         <v>119</v>
@@ -3136,15 +3212,15 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="150" r="41" spans="1:15">
+    <row ht="135" r="41" spans="1:15">
       <c r="A41" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>64</v>
@@ -3153,19 +3229,19 @@
         <v>50</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>119</v>
@@ -3177,15 +3253,15 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="105" r="42" spans="1:15">
+    <row ht="60" r="42" spans="1:15">
       <c r="A42" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>49</v>
@@ -3194,19 +3270,19 @@
         <v>50</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>119</v>
@@ -3220,13 +3296,13 @@
     </row>
     <row ht="45" r="43" spans="1:15">
       <c r="A43" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>28</v>
@@ -3235,17 +3311,17 @@
         <v>29</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>122</v>
+        <v>230</v>
       </c>
       <c r="M43" s="4" t="s">
         <v>119</v>
@@ -3257,15 +3333,15 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="90" r="44" spans="1:15">
+    <row ht="75" r="44" spans="1:15">
       <c r="A44" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>64</v>
@@ -3274,19 +3350,19 @@
         <v>29</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="M44" s="4" t="s">
         <v>119</v>
@@ -3298,7 +3374,7 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="135" r="45" spans="1:15">
+    <row ht="60" r="45" spans="1:15">
       <c r="A45" s="4" t="s">
         <v>93</v>
       </c>
@@ -3327,7 +3403,7 @@
         <v>114</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>119</v>
@@ -3339,7 +3415,7 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="120" r="46" spans="1:15">
+    <row ht="60" r="46" spans="1:15">
       <c r="A46" s="4" t="s">
         <v>93</v>
       </c>
@@ -3368,7 +3444,7 @@
         <v>114</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>119</v>
@@ -3380,7 +3456,7 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="120" r="47" spans="1:15">
+    <row ht="60" r="47" spans="1:15">
       <c r="A47" s="4" t="s">
         <v>93</v>
       </c>
@@ -3409,7 +3485,7 @@
         <v>114</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="M47" s="4" t="s">
         <v>119</v>
@@ -3421,7 +3497,7 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="135" r="48" spans="1:15">
+    <row ht="60" r="48" spans="1:15">
       <c r="A48" s="4" t="s">
         <v>93</v>
       </c>
@@ -3450,7 +3526,7 @@
         <v>114</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>119</v>
@@ -3462,7 +3538,7 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="120" r="49" spans="1:15">
+    <row ht="60" r="49" spans="1:15">
       <c r="A49" s="4" t="s">
         <v>93</v>
       </c>
@@ -3491,7 +3567,7 @@
         <v>114</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>119</v>
@@ -3503,7 +3579,7 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="120" r="50" spans="1:15">
+    <row ht="60" r="50" spans="1:15">
       <c r="A50" s="4" t="s">
         <v>93</v>
       </c>
@@ -3532,7 +3608,7 @@
         <v>114</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>119</v>
@@ -3544,7 +3620,7 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="60" r="51" spans="1:15">
+    <row ht="45" r="51" spans="1:15">
       <c r="A51" s="4" t="s">
         <v>93</v>
       </c>
@@ -3571,7 +3647,7 @@
         <v>136</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>138</v>
+        <v>250</v>
       </c>
       <c r="M51" s="4" t="s">
         <v>119</v>
@@ -3612,7 +3688,7 @@
         <v>118</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="M52" s="4" t="s">
         <v>119</v>
@@ -3651,13 +3727,13 @@
         <v>136</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>247</v>
+        <v>120</v>
       </c>
       <c r="O53" s="4" t="s">
         <v>106</v>
@@ -3671,10 +3747,10 @@
         <v>32</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>29</v>
@@ -3692,7 +3768,7 @@
         <v>118</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="M54" s="4" t="s">
         <v>119</v>
@@ -3731,7 +3807,7 @@
         <v>136</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>138</v>
+        <v>250</v>
       </c>
       <c r="M55" s="4" t="s">
         <v>119</v>
@@ -3772,7 +3848,7 @@
         <v>132</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>139</v>
+        <v>253</v>
       </c>
       <c r="M56" s="4" t="s">
         <v>119</v>
@@ -3804,7 +3880,7 @@
         <v>112</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
@@ -3813,7 +3889,7 @@
         <v>132</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>139</v>
+        <v>254</v>
       </c>
       <c r="M57" s="4" t="s">
         <v>119</v>
@@ -3852,7 +3928,7 @@
         <v>136</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>138</v>
+        <v>250</v>
       </c>
       <c r="M58" s="4" t="s">
         <v>119</v>
@@ -3872,26 +3948,26 @@
         <v>27</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="M59" s="4" t="s">
         <v>119</v>
@@ -3905,13 +3981,13 @@
     </row>
     <row customHeight="1" ht="41.25" r="60" spans="1:15">
       <c r="A60" s="4" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>28</v>
@@ -3920,17 +3996,17 @@
         <v>29</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>122</v>
+        <v>230</v>
       </c>
       <c r="M60" s="4" t="s">
         <v>119</v>
@@ -3944,13 +4020,13 @@
     </row>
     <row customHeight="1" ht="41.25" r="61" spans="1:15">
       <c r="A61" s="4" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>28</v>
@@ -3959,17 +4035,17 @@
         <v>29</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>122</v>
+        <v>230</v>
       </c>
       <c r="M61" s="4" t="s">
         <v>119</v>
@@ -3983,28 +4059,28 @@
     </row>
     <row customHeight="1" ht="41.25" r="62" spans="1:15">
       <c r="A62" s="4" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4" t="s">
-        <v>149</v>
+        <v>241</v>
       </c>
       <c r="M62" s="4" t="s">
         <v>119</v>
@@ -4018,7 +4094,7 @@
     </row>
     <row customHeight="1" ht="41.25" r="63" spans="1:15">
       <c r="A63" s="4" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>43</v>
@@ -4033,7 +4109,7 @@
         <v>29</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
@@ -4043,7 +4119,7 @@
         <v>40</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>121</v>
+        <v>229</v>
       </c>
       <c r="M63" s="4" t="s">
         <v>119</v>
@@ -4163,7 +4239,7 @@
         <v>36</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>119</v>
@@ -4325,7 +4401,7 @@
         <v>52</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>119</v>
@@ -4483,7 +4559,7 @@
         <v>36</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>119</v>
@@ -4621,7 +4697,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>80</v>
@@ -4660,7 +4736,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>82</v>
@@ -4684,7 +4760,7 @@
         <v>36</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>119</v>
@@ -4701,7 +4777,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>85</v>
@@ -4740,7 +4816,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>87</v>
@@ -4779,7 +4855,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>73</v>
@@ -4822,7 +4898,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>89</v>
@@ -4863,7 +4939,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>89</v>
@@ -4904,7 +4980,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>89</v>
@@ -4945,7 +5021,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>89</v>
@@ -4986,7 +5062,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>89</v>
@@ -5010,10 +5086,10 @@
         <v>36</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N23" s="4" t="s">
         <v>120</v>
@@ -5027,7 +5103,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>89</v>
@@ -5068,7 +5144,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>78</v>
@@ -5107,7 +5183,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>80</v>
@@ -5146,7 +5222,7 @@
         <v>17</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>107</v>
@@ -5188,7 +5264,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>64</v>
@@ -5197,19 +5273,19 @@
         <v>29</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>119</v>
@@ -5229,10 +5305,10 @@
         <v>27</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>29</v>
@@ -5244,15 +5320,15 @@
         <v>101</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>119</v>
@@ -5272,10 +5348,10 @@
         <v>31</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>29</v>
@@ -5287,15 +5363,15 @@
         <v>102</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M30" s="4" t="s">
         <v>119</v>
@@ -5315,10 +5391,10 @@
         <v>32</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>29</v>
@@ -5330,15 +5406,15 @@
         <v>102</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="L31" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>119</v>
@@ -5358,10 +5434,10 @@
         <v>43</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>29</v>
@@ -5376,10 +5452,10 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>119</v>
